--- a/test_datas/test_data_infos.xlsx
+++ b/test_datas/test_data_infos.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\git_lvhuayan_2\PO_UI_Test_Framework_lvhuayan\test_datas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="9780"/>
   </bookViews>
   <sheets>
     <sheet name="login_suite" sheetId="2" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
   <si>
     <t>测试方法名称</t>
   </si>
@@ -109,19 +114,37 @@
   </si>
   <si>
     <t>测试人员1</t>
+  </si>
+  <si>
+    <t>LoginTest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=admin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>password=admin@123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>username=admin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>password=123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>password=admin@123</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -130,345 +153,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -491,255 +198,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -752,62 +220,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1065,29 +493,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.5357142857143" customWidth="1"/>
-    <col min="2" max="2" width="44.4910714285714" customWidth="1"/>
-    <col min="3" max="4" width="22.3125" customWidth="1"/>
-    <col min="5" max="5" width="26.4821428571429" customWidth="1"/>
-    <col min="6" max="6" width="22.3214285714286" customWidth="1"/>
-    <col min="7" max="7" width="27.2232142857143" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="44.5" customWidth="1"/>
+    <col min="3" max="4" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="7" max="7" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1146,7 +574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1154,7 +582,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
@@ -1163,15 +591,15 @@
         <v>23</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>32</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>36</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1197,36 +625,38 @@
       <c r="I3" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.5357142857143" customWidth="1"/>
-    <col min="2" max="2" width="44.4910714285714" customWidth="1"/>
-    <col min="3" max="4" width="22.3125" customWidth="1"/>
-    <col min="5" max="5" width="20.5357142857143" customWidth="1"/>
-    <col min="6" max="6" width="22.3214285714286" customWidth="1"/>
-    <col min="7" max="7" width="27.2232142857143" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="44.5" customWidth="1"/>
+    <col min="3" max="4" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="7" max="7" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1255,7 +685,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1272,15 +702,15 @@
         <v>30</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>34</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1297,45 +727,47 @@
         <v>28</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.5357142857143" customWidth="1"/>
-    <col min="2" max="2" width="44.4910714285714" customWidth="1"/>
-    <col min="3" max="4" width="22.3125" customWidth="1"/>
-    <col min="5" max="5" width="20.5357142857143" customWidth="1"/>
-    <col min="6" max="6" width="22.3214285714286" customWidth="1"/>
-    <col min="7" max="7" width="27.2232142857143" customWidth="1"/>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="44.5" customWidth="1"/>
+    <col min="3" max="4" width="22.375" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="22.375" customWidth="1"/>
+    <col min="7" max="7" width="27.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1364,7 +796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -1389,7 +821,7 @@
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
@@ -1415,12 +847,12 @@
       <c r="I3" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/test_datas/test_data_infos.xlsx
+++ b/test_datas/test_data_infos.xlsx
@@ -9,19 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="9780"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="9780" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="login_suite" sheetId="2" r:id="rId1"/>
     <sheet name="main_suite" sheetId="5" r:id="rId2"/>
-    <sheet name="myzone_suite" sheetId="6" r:id="rId3"/>
+    <sheet name="authority_suite" sheetId="6" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="48">
   <si>
     <t>测试方法名称</t>
   </si>
@@ -92,15 +92,9 @@
     <t>是</t>
   </si>
   <si>
-    <t>测试人员</t>
-  </si>
-  <si>
     <t>username=test01</t>
   </si>
   <si>
-    <t>password=newdream123</t>
-  </si>
-  <si>
     <t>test_login_fail</t>
   </si>
   <si>
@@ -113,9 +107,6 @@
     <t>password=newdream</t>
   </si>
   <si>
-    <t>测试人员1</t>
-  </si>
-  <si>
     <t>LoginTest</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -128,15 +119,84 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>username=admin</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>password=123</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>password=admin@123</t>
+    <t>admin</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证是否能成功退出系统</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuitTest</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_quit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_add_group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_edit_group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_delete_group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>test_copy_group</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证添加组名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证编辑组名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证删除组名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证复制组名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AuthorityCases</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>groupName</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>=测试一组</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupName=测试二组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupDescription=测试一组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>groupDescription=测试二组</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -144,7 +204,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -166,6 +226,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -175,7 +243,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -198,6 +266,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -207,7 +286,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -221,6 +300,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -501,8 +586,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -510,7 +595,7 @@
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="44.5" customWidth="1"/>
     <col min="3" max="4" width="22.375" customWidth="1"/>
-    <col min="5" max="5" width="26.5" customWidth="1"/>
+    <col min="5" max="5" width="48.125" customWidth="1"/>
     <col min="6" max="6" width="22.375" customWidth="1"/>
     <col min="7" max="7" width="27.25" customWidth="1"/>
   </cols>
@@ -582,29 +667,29 @@
         <v>20</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>21</v>
@@ -613,13 +698,13 @@
         <v>22</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
@@ -640,10 +725,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -687,74 +772,42 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>33</v>
-      </c>
+      <c r="E2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="4"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -762,7 +815,7 @@
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="44.5" customWidth="1"/>
     <col min="3" max="4" width="22.375" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="5" max="5" width="45.25" customWidth="1"/>
     <col min="6" max="6" width="22.375" customWidth="1"/>
     <col min="7" max="7" width="27.25" customWidth="1"/>
   </cols>
@@ -798,61 +851,96 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>25</v>
+      <c r="E2" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>46</v>
       </c>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>21</v>
+        <v>36</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>29</v>
+      <c r="E3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="2" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D5">
       <formula1>"是,否"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>